--- a/src/attributions/attributions_ig_traj_343.xlsx
+++ b/src/attributions/attributions_ig_traj_343.xlsx
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
@@ -1573,52 +1573,52 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1860632104581935</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.308136041568655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2652517787249653</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.246979541901954</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1582631244486916</v>
+        <v>0.0001418305825317624</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1362853369094355</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.2820396920712785</v>
       </c>
       <c r="L3" t="n">
-        <v>0.297150476826397</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>-0.1898442081304796</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0125636369380263</v>
+        <v>-0.04438314547111684</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1627,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.04182337568533386</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.1863711960531554</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09024268733257404</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>-0.03245113711132101</v>
       </c>
       <c r="W3" t="n">
-        <v>0.212415819852602</v>
+        <v>0.145548781867915</v>
       </c>
       <c r="X3" t="n">
         <v>-0</v>
@@ -1654,100 +1654,100 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.003309178984207324</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.03480821812840731</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.01845667648134505</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0.002781491789784687</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.07509085706592189</v>
+        <v>-0.009919946858551429</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.09694491082013811</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.03767580068383242</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1246409147621838</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>-0.09125961872095562</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.02973405194221648</v>
+        <v>-0.06676844220371166</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
         <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.2412781558123419</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.5489202953699498</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3449581563835152</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>-0.1290745349497014</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.06438714010636667</v>
+        <v>0.1636374207254766</v>
       </c>
       <c r="AY3" t="n">
         <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.02768750872869382</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.0561073505034549</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.105522349744165</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>-0.1272971252237194</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.2346557884370409</v>
+        <v>-0.1179612876189809</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -1756,79 +1756,79 @@
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.05623294477153339</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.05334062555852546</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.192464974667212</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0.0532781039061477</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.1691909166198664</v>
+        <v>0.1882309561883448</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.2449172745366158</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.2680978234446056</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.1996978857704841</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>-0.05079859067566444</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.0796833002096045</v>
+        <v>0.1276664921846821</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.08982217575802492</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>-0.1224368969974488</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.1161964796902961</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0.05188857132559846</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.03521127832716688</v>
+        <v>-0.03454128338347627</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
@@ -1837,52 +1837,52 @@
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.02743964911127676</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0.00398082907903584</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.01065452558654255</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0.06933921517193167</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.07053367088027555</v>
+        <v>-0.0810868990527604</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.07504067258169798</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0.1156062459157742</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.110563669499797</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>0.08205920303793832</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.07610554607694207</v>
+        <v>-0.03955027220541803</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
@@ -1891,52 +1891,52 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.06941109531237202</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>-0.1128934867186368</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.05029005694908353</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>0.04399754718010405</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.02289938425486101</v>
+        <v>-0.05508072600522133</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.09517069889534134</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>0.01308922988748438</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.09134842324389955</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0.08704078079537347</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.1687205317633431</v>
+        <v>-0.1098382042861213</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
@@ -1945,52 +1945,52 @@
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0898293892675501</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>0.04924936518695596</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.1061826718700505</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>-0.0311825530133635</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1663644565002076</v>
+        <v>-0.03246154201041541</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0803071092799717</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>-0.1058295024999718</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.1341143051308102</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0.07708542364148763</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02629530366973484</v>
+        <v>0.05794504266960257</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
@@ -2002,49 +2002,49 @@
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.01088238545879646</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>-0.1396256541959134</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.07271977009658076</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0.06232282006589054</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.08460340450499133</v>
+        <v>0.02467415193067227</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
         <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.09676596971168895</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>-0.1209171992911096</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.106684837640231</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0.05664225252624153</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.06857263592355246</v>
+        <v>-0.03895755471164623</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
@@ -2053,82 +2053,82 @@
         <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
         <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1647575119213474</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.03402184132564226</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.07916016180360891</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>0.09382094824954623</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.01863151400677435</v>
+        <v>-0.01860101454586399</v>
       </c>
       <c r="FL3" t="n">
         <v>-0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.09705813796948404</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>-0.02151819083240892</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.01655928503872934</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>0.07911482123993194</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.01178009326232433</v>
+        <v>0.005858280160383282</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0.01760356804127992</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.04637325522405137</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.08186744872806102</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0.1171996280644711</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,100 +2145,100 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2553323292486331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.250634009908522</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04932238324382217</v>
+        <v>-0.06035569036219256</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.1405023945453774</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1030737844193614</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.1963461923007995</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2775527367889313</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1603420190393436</v>
+        <v>-0.04421655169414063</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.2470126368590713</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1865267541672837</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.08151067089495979</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02797510103462345</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.04330587247483361</v>
+        <v>-0.06290113827107999</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.02800001905935462</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.06674017441541688</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0.01989540174974715</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01416579200278584</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01894375990367799</v>
+        <v>0.01308862025146248</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.004597412030669789</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2247,79 +2247,79 @@
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.03491040160249752</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.07498654663952052</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.09151155319742621</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.09692587852836217</v>
+        <v>0.004162330227686552</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.09621699459964303</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.03572886415272963</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3810597779702696</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2960738413265547</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04977233808868327</v>
+        <v>-0.1339831952535404</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>-0.2984109151148688</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.2433403802684026</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.09382221172000745</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1487684203929906</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.008216931019311112</v>
+        <v>-0.07930957121456964</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.05496398359694169</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,106 +2328,106 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.02278306765334149</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.09085908738331115</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.1196553300773744</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.123104107435153</v>
+        <v>-0.005913677274176876</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01648157093132357</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1374143214458665</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.1748125593362344</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.2055404074371699</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01153737290184517</v>
+        <v>-0.09986797577448973</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0.1215082261820448</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.2249468140671366</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.09444803992882324</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.08622930561067887</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.05914136105794428</v>
+        <v>-0.01186001075146671</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.1035957028969557</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0615929938340885</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.0002878623807203</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.01796068299240509</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.02117584949728583</v>
+        <v>0.02942368232175689</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.005337961829377705</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2436,52 +2436,52 @@
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.07754492367103034</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.07921731318496898</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.07975743292756672</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01781444446798916</v>
+        <v>-0.005785932381349564</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.1187519738825575</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.05881282860230286</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>-0.0238254309452103</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.09543786781358476</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1753001377533669</v>
+        <v>0.06375818220772057</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>-0.06245362777140466</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,214 +2490,214 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.09209379498417661</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>0.007144762344660035</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01836888493627132</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.09174971250801521</v>
+        <v>0.02002437030255545</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0.01367269124875494</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.1854920234339194</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.05682305866219151</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.09256605008647391</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02998592497601972</v>
+        <v>-0.01998850327167285</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.08184701509984406</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.02492689098722577</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.074837383831558</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.07179163018081158</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.2116275212710143</v>
+        <v>0.01914074450782193</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.1128541724024182</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.04744827922254372</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.02950308962608741</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.07724314603743138</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0782767922316573</v>
+        <v>-0.02162450000639929</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04860572160368239</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.1799113566356029</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.07519737562396658</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.08943515484297318</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.03895408263103457</v>
+        <v>-0.003634813535722961</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.1034465240717119</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.07981143965941151</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.04531451440036609</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.1238668865747962</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.09861546049415525</v>
+        <v>-0.03193724451937031</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0.08666481688870464</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.1396482032135846</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>-0.01582527408402181</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.01809813411975034</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01134165913362443</v>
+        <v>0.01524935124616478</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.07052617018832834</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1303275259371888</v>
+        <v>-0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>0.003380327058767873</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.07714479176117479</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0.05527249178258466</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
@@ -2706,7 +2706,7 @@
         <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1047355417051877</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3146,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
         <v>0</v>
@@ -3280,109 +3280,109 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1033987582074574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1795994220391323</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.004224444860873713</v>
+        <v>-0.06180872139991046</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01501600445024591</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.01591426624679503</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.09164053826427862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1794915859615361</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02730256021325211</v>
+        <v>-0.04905786988559949</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03016964128553789</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-0.04879486110389886</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1012258459267559</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01133639586119633</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02766383233912825</v>
+        <v>0.02310199215796888</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.03874134694357639</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0.0408153618320814</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.02288544059169746</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02080833007810172</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.002324171664464949</v>
+        <v>-0.02311497268495512</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.001785857565391672</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0</v>
+        <v>-0.002819277496495619</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
@@ -3391,268 +3391,268 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.05190999538630606</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.06063581455278741</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.007543306254443429</v>
+        <v>-0.02447071518995486</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01320030997071478</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>-0.02637654038119692</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.2566512383833651</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1413287602204921</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
         <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.05556773966772532</v>
+        <v>0.03413403374083424</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.02334820643275698</v>
+        <v>-0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>0.05089016452021177</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0.0363734537201918</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.1078027919208316</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.05117611637832261</v>
+        <v>-0.1036487993020915</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.02103642434945951</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0.05424439728912034</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.06241268488734149</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.08625204700641405</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.001078560229750647</v>
+        <v>0.02984530240879427</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0128217526737982</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0.008823618188773162</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.158269913482134</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.1046401847056305</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.02550628373140721</v>
+        <v>0.01880301415026433</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.03930753009039581</v>
+        <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0.03197641412843023</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0</v>
+        <v>-0.03822577257145659</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0.05701897449952525</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.004510258253470152</v>
+        <v>0.0190978413591189</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.02316802362646403</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>0.002160569622381371</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.02253269881005172</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0.0006977685527292587</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01713234249852823</v>
+        <v>-0.04403029298305127</v>
       </c>
       <c r="CR6" t="n">
         <v>-0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.01773820990946953</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0.0008816007444548573</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>-0.02673163825032252</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0.06357245388985165</v>
+        <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01813353451113346</v>
+        <v>0.004963392188269864</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.01931869057718917</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>-0.002630574243376753</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.120113232045637</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0.03661513373521731</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01435442751295056</v>
+        <v>0.01277067501244165</v>
       </c>
       <c r="DJ6" t="n">
         <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0.02535960137120378</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0.01459758004107834</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN6" t="n">
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>0.005541938693666868</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0.005167550389261775</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.04033438674664067</v>
+        <v>0.006566740069972578</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.03987519997212366</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0.01689898466044384</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
@@ -3661,52 +3661,52 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.04715619769001198</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.07743733068836345</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.009116574585701835</v>
+        <v>0.04924664737267104</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.02928830468909307</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0.009089230947277914</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.007932857724687221</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0.09953425635043538</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>-0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.02082017027134034</v>
+        <v>0.03575489206650671</v>
       </c>
       <c r="EK6" t="n">
         <v>-0</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.01458189923940478</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>0.02529207986816507</v>
       </c>
       <c r="EN6" t="n">
         <v>-0</v>
@@ -3715,153 +3715,153 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0</v>
+        <v>-0.05818188113843341</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01314578642240348</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.05065130731337689</v>
+        <v>0.01706992689060513</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.003197098805719071</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
+        <v>0.04654975367123194</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.03345131591073507</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0.06072985756791833</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.004503112663367561</v>
+        <v>0.002186820400608861</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.01406021835954343</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>0.001980597510450248</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>0.03030582885566441</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0.009021361750704006</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02046666856361633</v>
+        <v>-0.01474060629656515</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01717359867522095</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0.03143877613056822</v>
       </c>
       <c r="FO6" t="n">
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>0.001465884914252954</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0.007765017677827679</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0006648116854394743</v>
+        <v>-0.005081431625724553</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.01432605771543357</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0.01651565299580694</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.06352783391278963</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0162895043619527</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.004429423497224008</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>-0.03330224257608763</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>-0.1129286508972713</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1667487582886861</v>
+        <v>0.3934606958369784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3037657807852038</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08626175975157384</v>
+        <v>-0.1205523579464054</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3870,31 +3870,31 @@
         <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0.06755002786734846</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09379712012817983</v>
+        <v>0.2559820835806024</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2727950202540569</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001160017285859739</v>
+        <v>-0.1800152427255538</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.01623293358140101</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1535001028720472</v>
+        <v>0.2671674238197894</v>
       </c>
       <c r="U7" t="n">
-        <v>0.151935082620849</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>-0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05503659561190819</v>
+        <v>0.05303149412720707</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3930,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>6.920768793610937e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1.219890307937403e-10</v>
+        <v>0.03921351927060709</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.04155277331248714</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.04864113294204266</v>
+        <v>-0.0003379980955681565</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3957,19 +3957,19 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>-0.06806368198932924</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.08852432380827503</v>
+        <v>0.2089998724990556</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.05769353294407268</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02586537143324634</v>
+        <v>0.05737450468985338</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,52 +3978,52 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.09071032357272926</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.1847489997956633</v>
+        <v>0.541667417840325</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1225407858849101</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
         <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04631334179908388</v>
+        <v>0.1617179785343792</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>-0.05722529226282546</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.08418673529896749</v>
+        <v>-0.04634216462226342</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1936702832558668</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.1628829184976895</v>
+        <v>-0.3282327371717088</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>-0.005689404964449868</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02174525897641523</v>
+        <v>-0.02899987122844675</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.1258534343435685</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
         <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.08392571441144106</v>
+        <v>0.06134513232691902</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,28 +4062,28 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>0.08185553423724622</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0.1427890774329189</v>
+        <v>0.4141928545992247</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1763005401455405</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.05188680009641539</v>
+        <v>0.01895599535333535</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
@@ -4092,25 +4092,25 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0.03608559607893798</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0378839837933154</v>
+        <v>-0.1042034095633602</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.07081970951886798</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02423931776942862</v>
+        <v>-0.003311361857313077</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>-0.09765670836580827</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0.01597020717446829</v>
+        <v>0.008757178829219758</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02003504064790377</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.04450187535738449</v>
+        <v>-0.06049236545915489</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0</v>
+        <v>0.01867878896234685</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.02196968826501203</v>
+        <v>-0.1128188374858225</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.08192884396382857</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.05403801873470764</v>
+        <v>-0.004028395428125664</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,52 +4173,52 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0.04992623904213585</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.1054235579007329</v>
+        <v>-0.1971872018027434</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01910945174104016</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.004851462156230986</v>
+        <v>0.08017515092536989</v>
       </c>
       <c r="DJ7" t="n">
         <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>-0.07613377232160144</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.1190808319439051</v>
+        <v>-0.07353923112270259</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.09774145755329175</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
         <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.08142975680246443</v>
+        <v>-0.01599533748582309</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0.03631876443315511</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.05631142660825104</v>
+        <v>0.1084951974620932</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.09836200700924728</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.03680759221912496</v>
+        <v>-0.08717166272743332</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,85 +4248,85 @@
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>-0.01235817142517943</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0.06088722373888401</v>
+        <v>0.03440654406264015</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.09278775551697702</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
         <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.0006191796062260838</v>
+        <v>-0.008907800445750657</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0</v>
+        <v>0.004399102494548317</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.1754020996880282</v>
+        <v>-0.1047370057322039</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.0676366990959152</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
         <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1225000894793427</v>
+        <v>-0.01914548170946802</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0.01485141860426576</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.02516386777404261</v>
+        <v>-0.1182367563524874</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.07509329634125254</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
         <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.03383103307447217</v>
+        <v>-0.03319979597720287</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>-0</v>
@@ -4335,46 +4335,46 @@
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0.04879575787577533</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.003944384623348224</v>
+        <v>-0.05408039401192199</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.09816569080487114</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.03381731052612405</v>
+        <v>-0.08793089961423908</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>-0.04258302787323238</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.1736227440951075</v>
+        <v>-0.03929665386912452</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.004829775030010173</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01735455655252266</v>
+        <v>-0.008417817807125007</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,25 +4383,25 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
         <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0.07957161118919936</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0.03441749661995549</v>
+        <v>-0.05231683463534471</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1135059854142794</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
         <v>-0</v>
@@ -4413,7 +4413,7 @@
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.3415514966458008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1874629022582159</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04606006428033893</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05222860510591873</v>
+        <v>-0.05987241321972574</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>-0.1212770365090693</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4448,22 +4448,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1970972272572605</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1706907339815839</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03218475634283199</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02820798375169918</v>
+        <v>-0.0767720471228422</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0.09026116686894002</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,28 +4472,28 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.1369491858146346</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05686870535743119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07570152448541952</v>
+        <v>-0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08397322660830617</v>
+        <v>0.09772895390758969</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0.02960401965795932</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -4502,22 +4502,22 @@
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.04379197919354457</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01244735522113113</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-1.397913138810741e-11</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.01223317601442364</v>
+        <v>0.00586778757728071</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>-1.436090362232546e-13</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
@@ -4529,49 +4529,49 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.08414764576320176</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.04913458784101207</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.01004419750445497</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.02014331740343504</v>
+        <v>0.03063664236672827</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0.06961103336264543</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.4720946925883336</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1365761732942976</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.008805863605921579</v>
+        <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.03974967234286992</v>
+        <v>0.08259717405793482</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0.08382232692156831</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,28 +4580,28 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0654141966932334</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.06782609264863794</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.05000389372417482</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.09643990795277683</v>
+        <v>-0.146005208341475</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0.07095597978758073</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
         <v>0</v>
@@ -4610,79 +4610,79 @@
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.002366086193398574</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.08775385188452882</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.01785843129076556</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.0798151605224255</v>
+        <v>0.07367222442108862</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>0.05709567735314711</v>
       </c>
       <c r="BS8" t="n">
         <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.2152668213115117</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0816034133805059</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.02006125160602074</v>
+        <v>-0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.00142500288063151</v>
+        <v>0.01421893667494718</v>
       </c>
       <c r="BZ8" t="n">
         <v>0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0.04919836208327753</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.1056656352745827</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.04781637825899325</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.02303068337633292</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.009907444785692689</v>
+        <v>-0.003337534779917592</v>
       </c>
       <c r="CI8" t="n">
         <v>-0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>0.04178483193514076</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
         <v>-0</v>
@@ -4691,157 +4691,157 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0.0452389736237582</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0311351000973785</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.002065015316841541</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.007260591180507497</v>
+        <v>-0.04502092263144209</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0</v>
+        <v>0.005738084025857479</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.09908585918659761</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.04256279811669923</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.01839890646665011</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01033557026491701</v>
+        <v>-0.006238431709342388</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0.04711285676169643</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.2329864090880344</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.03881492717566399</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0.02881003777060918</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.04374416128533721</v>
+        <v>0.05570608745279546</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0.03480049417973468</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.007059779686927379</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.04818856987803118</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.00385919509162758</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.04595069636729119</v>
+        <v>-0.01393395898694593</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0.01177372856978751</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.08280815804559229</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.05032214796432751</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.01500805383749419</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0028315763604709</v>
+        <v>-0.03190468650863516</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>0.008062422711113466</v>
       </c>
       <c r="ED8" t="n">
         <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.04472951453214273</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.05707915787084387</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.03958793224943744</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0129195951664395</v>
+        <v>0.03147638773710253</v>
       </c>
       <c r="EK8" t="n">
         <v>-0</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>0.03671949032698358</v>
       </c>
       <c r="EM8" t="n">
         <v>-0</v>
@@ -4853,52 +4853,52 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>-0.07473376487879467</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.02720083296534167</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0.01202908805510678</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.03499541659878077</v>
+        <v>-0.009396700169150493</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0.00909030006615771</v>
       </c>
       <c r="EV8" t="n">
         <v>-0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>-0.1058395788155789</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.0393374950757944</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.02057713492895281</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.007545006372367422</v>
+        <v>-0.02131028776560923</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>0.04672113474762873</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>-0</v>
@@ -4907,99 +4907,99 @@
         <v>-0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.06680534733891758</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.04133580430781236</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.008521083881041025</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.01656717595347101</v>
+        <v>-0.06208347784782419</v>
       </c>
       <c r="FL8" t="n">
         <v>-0</v>
       </c>
       <c r="FM8" t="n">
-        <v>-0</v>
+        <v>0.03119152395862422</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.0149767313261869</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.004757130679172382</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0.03960365471013316</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.004698354223922426</v>
+        <v>0.005232407404600471</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>0.06150084433315758</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>-0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.06988852365815514</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.07119777508893821</v>
+        <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.03063849250950132</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
         <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>-0</v>
+        <v>-0.07037210843434419</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.4940848067229939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.280530752211817</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0161108249501428</v>
+        <v>-0.1556707240961142</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5008,25 +5008,25 @@
         <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1628825089230456</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0.2113018654625718</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.3077829916219924</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2188390191069883</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0258593079352898</v>
+        <v>-0.1810962509662244</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,52 +5035,52 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.160847200203175</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0.1699307642707485</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1908462999132181</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.02195869366531346</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0388525104034944</v>
+        <v>0.03915750965719401</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.1185346554795515</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>-0.05363557702180044</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.05163563972683565</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.004878440297191921</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.007236966629710766</v>
+        <v>0.008129089255700274</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -5089,25 +5089,25 @@
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.004530627246777364</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0</v>
+        <v>-0.002825772657178147</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.1210527973473092</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.09010345422587152</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1151092191773434</v>
+        <v>0.01626450935588715</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5116,25 +5116,25 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.04269202954206876</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0.05341220890147508</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.6003596630656459</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.191846337570753</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.03027046190023159</v>
+        <v>0.1010110057600429</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.175738184198398</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0.1759626023047828</v>
       </c>
       <c r="BC9" t="n">
         <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.1065828136399348</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1573959581466189</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.04937155890408914</v>
+        <v>-0.2895850914223399</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,349 +5170,349 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.1183022092872383</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0</v>
+        <v>-0.1445764838589528</v>
       </c>
       <c r="BL9" t="n">
         <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0.04551499332200066</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.09945831152580445</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.06685689076869565</v>
+        <v>0.2156227848496671</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.1035622677298853</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0</v>
+        <v>0.003010156642644035</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.3520641780971481</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.1337711316435755</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.03941678857433031</v>
+        <v>0.01571103973742782</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.07094275212749833</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0.06497944448137635</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.148330876035297</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0.08372417862710356</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.005354791156930234</v>
+        <v>0.005980381114792039</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.05281273780296297</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0.09949941009239956</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.07953155588326682</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.01760323783803323</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
         <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03751668655916476</v>
+        <v>-0.04418803264317025</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03580517105538313</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>0.02080527379596706</v>
       </c>
       <c r="CV9" t="n">
         <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.1306142630132254</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0.09019290513140417</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.03633765647708245</v>
+        <v>0.005735740808937768</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.04104289715790305</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>0.0776680065575049</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.1850186325087347</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0.02317919996218624</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.04911496027781388</v>
+        <v>0.01884111295873396</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.04419230994618076</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>0.001501331977913584</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0</v>
+        <v>-0.01863234106622962</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0.02080129791382463</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.02936748239985464</v>
+        <v>-0.007528892375356588</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0.04471066244326884</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0.006425750067442979</v>
       </c>
       <c r="DW9" t="n">
         <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.1032443968463352</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.05516548719531061</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.002409327005935873</v>
+        <v>-0.04373245824401272</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.08779261010851362</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>-0.0002569892388709924</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.05482021241611838</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.07005224618268296</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.07093586747865846</v>
+        <v>0.02420375537790847</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.08206403904612032</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>0.1284321881389089</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>-0.1244504007755015</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.009359170711974674</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0222443478497122</v>
+        <v>0.02418958060514468</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.01184889328726032</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0.07087522938713864</v>
       </c>
       <c r="EX9" t="n">
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.1516891220406906</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0.0951702022336909</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01712774897019421</v>
+        <v>0.009147080558182901</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.05945812481744462</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0.07867804424159633</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.08670814401796181</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.07882291921579385</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.05599122034129246</v>
+        <v>-0.06410916916761182</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01723080322706941</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>-0.0357218924941721</v>
       </c>
       <c r="FP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.02463184115138704</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0.01645686399175974</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.002278997030732103</v>
+        <v>0.00612399302497947</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
@@ -5521,37 +5521,37 @@
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.003030849482994747</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0.006005854261766714</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.1043109663002531</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.03321083234219689</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
         <v>-0</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.04737245631416077</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0.02146843487910407</v>
       </c>
     </row>
     <row r="10">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -5667,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
@@ -5775,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
@@ -5802,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
@@ -5883,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>0</v>
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
@@ -6128,19 +6128,19 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>-0.4408189616825194</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2124684665385379</v>
+        <v>0.4857436483879309</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02681111230504532</v>
+        <v>0.0001208377023675562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2341617760297231</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,22 +6155,22 @@
         <v>-0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>-0.3087116600858973</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1919344635880341</v>
+        <v>0.3583905892554451</v>
       </c>
       <c r="M11" t="n">
         <v>-0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06277759942730342</v>
+        <v>0.2090874964937682</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2541290487206829</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6182,52 +6182,52 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>-0.1268263960429287</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02182954680140181</v>
+        <v>0.01122975220054954</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1686625951843593</v>
+        <v>-0.04769217841188785</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1952158255759611</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.08555077676928874</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.01011725436790969</v>
+        <v>-0.0002111815623978148</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.1230146175655944</v>
+        <v>-0.0525606753191706</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.02798958303562772</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -6236,46 +6236,46 @@
         <v>-0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0.2448814962092515</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.07729659961699567</v>
+        <v>0.06792721213575587</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.1025633983437263</v>
+        <v>-0.01444006519919969</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0573615463889694</v>
+        <v>-0</v>
       </c>
       <c r="AQ11" t="n">
         <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>-0.4669255449430049</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.1684504013098154</v>
+        <v>0.339746320626391</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.2089027641572013</v>
+        <v>-0.1471355699317606</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.04556598161471131</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6284,31 +6284,31 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>-0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0</v>
+        <v>-0.08600552547067963</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.02369686114306549</v>
+        <v>0.174965901881208</v>
       </c>
       <c r="BF11" t="n">
         <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.2106792172292755</v>
+        <v>0.376822756907503</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1010893776889318</v>
+        <v>-0</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
         <v>-0</v>
@@ -6317,49 +6317,49 @@
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>-0.05125753107376308</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.02529996181221552</v>
+        <v>0.08945819751303594</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.14700929666187</v>
+        <v>-0.1183041894332046</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.02378011904999047</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0</v>
+        <v>-0.1598786474952575</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.07932617471742763</v>
+        <v>0.3386565978309464</v>
       </c>
       <c r="BX11" t="n">
         <v>-0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.1297812459614574</v>
+        <v>-0.05611973783793379</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.2560642883722276</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
         <v>-0</v>
@@ -6371,25 +6371,25 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>0.1349789819307364</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.06097836949291002</v>
+        <v>-0.07769610865101886</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.006140131968596314</v>
+        <v>-0.02440780407761631</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.05413565670999476</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -6398,19 +6398,19 @@
         <v>-0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0.02722711563298532</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.03826479560255986</v>
+        <v>0.01207239363536748</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.149674779084375</v>
+        <v>-0.09161554795852025</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02534909165573261</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6425,76 +6425,76 @@
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>0.09908876134357367</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.05128416374751225</v>
+        <v>-0.07839288106123145</v>
       </c>
       <c r="CY11" t="n">
         <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.06544635732665689</v>
+        <v>0.004868474738878039</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.02238734601203976</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0</v>
+        <v>0.1254166645390838</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.06443163632780237</v>
+        <v>0.03296181275590543</v>
       </c>
       <c r="DH11" t="n">
         <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.09531001413705449</v>
+        <v>0.1213513130239793</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.1467166647366788</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>0.006497859947220424</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01324067498426297</v>
+        <v>-0.008665938313251725</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02205301158229733</v>
+        <v>-0.1064606393768627</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.05210287575018868</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>-0</v>
@@ -6503,22 +6503,22 @@
         <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.06841640563289295</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.04573605320743909</v>
+        <v>0.05709292354164554</v>
       </c>
       <c r="DZ11" t="n">
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.02568338024479805</v>
+        <v>0.03758418037624453</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.06098286293337028</v>
+        <v>-0</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,55 +6527,55 @@
         <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>0.02205391221764075</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.06984251906209336</v>
+        <v>-0.0677272332608385</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07709035639799261</v>
+        <v>-0.06412815077385257</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.1184969153623223</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
         <v>0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>0.08221775854720045</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.008286665512408975</v>
+        <v>0.0202747506390775</v>
       </c>
       <c r="ER11" t="n">
         <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04526225490915192</v>
+        <v>0.004297273401385887</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.1159578501826753</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>-0</v>
@@ -6587,100 +6587,100 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>0.1152589217846858</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.06423451419592602</v>
+        <v>-0.06568982865213743</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.02351103180368694</v>
+        <v>-0.03109467287299124</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.022508026768909</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE11" t="n">
         <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>0.09148619382358507</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.03240871409451231</v>
+        <v>0.1221835532620295</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03117200760786237</v>
+        <v>0.1793878853206186</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0.1058879170234395</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>9.471605467331808e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0004656331747532384</v>
+        <v>-0.05953444839317886</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.001807808194675445</v>
+        <v>0.01317976874406395</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.02821959895319241</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.06136190134482987</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.06507457954236043</v>
+        <v>-0.001092664928008966</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.005695055547409974</v>
+        <v>0</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
@@ -6697,25 +6697,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1496082658998431</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0338874677201983</v>
+        <v>-0.05050764279610264</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3206888018445908</v>
+        <v>-0.07783150167930862</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09556239197506025</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,25 +6724,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1084893438066814</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.05961179081095929</v>
+        <v>-0.0206292743286881</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2334426636537128</v>
+        <v>-0.05058132542063425</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.06197675056903965</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,25 +6751,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02334656483461089</v>
       </c>
       <c r="U12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.06334425151980788</v>
+        <v>-0.01685320739660771</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07640624421541219</v>
+        <v>-0.0005317449149046421</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002729904933509016</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6778,52 +6778,52 @@
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.0008385756378535438</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.04437822176207316</v>
+        <v>0.006659123548114939</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.004213274276721658</v>
+        <v>0.003159968205281028</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.008932431757947341</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.02344061157875744</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0498611413338001</v>
+        <v>0.002593447887551928</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.05853409361195363</v>
+        <v>-0.03903432690755655</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.03131436859607663</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,7 +6832,7 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.1136875712437861</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
@@ -6841,43 +6841,43 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.06507298121337202</v>
+        <v>-0.03927614719870123</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.186183110196438</v>
+        <v>-0.09202787207415655</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.09159423486503891</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.03546575413379773</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.04991749733298728</v>
+        <v>-0.0357400211000821</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0809872638410004</v>
+        <v>-0.02229286350805137</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.05650319814538575</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,160 +6886,160 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.02482467292587764</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.01701826084416825</v>
+        <v>-0.002546648575107513</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.03625592673891007</v>
+        <v>0.00642027549446862</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.008708921300188775</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.06189139438839626</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02704851003377836</v>
+        <v>-0.02653877200269847</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.1424524470853031</v>
+        <v>-0.02640025337916411</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.03634975814613033</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.0311781498043518</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02603243967301348</v>
+        <v>0.001258627113071169</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.06409014968751842</v>
+        <v>0.02452932073712738</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.02413468079524734</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>0.005738668127066465</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.06138040159528432</v>
+        <v>-0.0005489756660519262</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.05242555762916589</v>
+        <v>-0.01799896468366113</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.02185328584624767</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.02854765388914949</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.03187493141989816</v>
+        <v>0.003458761725712044</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.06948122177547049</v>
+        <v>0.03034752932369078</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.04356530871109176</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.02038873561903875</v>
       </c>
       <c r="DG12" t="n">
         <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01499112071019043</v>
+        <v>0.04198357010656961</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.03200096968352902</v>
+        <v>-0.0009766352999453886</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0003586400496052262</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.00963550648505076</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7057,208 +7057,208 @@
         <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.04341384369842616</v>
+        <v>0.013568503397487</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0.01531504249631939</v>
+        <v>0.000199566948178412</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.002287370915302081</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.02125698854071172</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
         <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0009308955491870801</v>
+        <v>0.007038951875142824</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0.006518412836293656</v>
+        <v>0.008982954013516599</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.02548807250394998</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.03249091348122058</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.02507467654622961</v>
+        <v>0.01244890074491323</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.09295122168304162</v>
+        <v>0.03448664767752143</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.005375508325650654</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.01780821487346118</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0267598449041001</v>
+        <v>-0.0009834098558741153</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.02667768874988594</v>
+        <v>0.009587972805082567</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.08305375713053736</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.02666139601646762</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02592999054184733</v>
+        <v>0.003533873754926275</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.06124734898056857</v>
+        <v>0.02634767334706528</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.04303260337108211</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.001280893963123695</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.007656550150529604</v>
+        <v>0.01007008216087361</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0225208499171393</v>
+        <v>0.03176563858496266</v>
       </c>
       <c r="FM12" t="n">
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.04627715050297604</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.00281222217637857</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01515915973843613</v>
+        <v>0.01125035671199754</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0.0464066705593565</v>
+        <v>0.01700353811588047</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.05180069033681766</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.004676091419725967</v>
       </c>
       <c r="GA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.05163680856735771</v>
+        <v>-0.01839851382954323</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.00637934924241472</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,25 +7266,25 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.1020841332879855</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0138201742772365</v>
+        <v>-0.08402052929767165</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2253488949800545</v>
+        <v>-0.0169935866552945</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.06821181531230208</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7293,25 +7293,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.06421677013463198</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01842069424715296</v>
+        <v>-0.05771565482580825</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1599448223490614</v>
+        <v>-0.01306626349716746</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.03822748831856334</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.02156141023026783</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7329,25 +7329,25 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.05042660970293834</v>
+        <v>-0.008322170071173819</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05637113043369697</v>
+        <v>0.01045900277248337</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.009402794669980096</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.003494791878018157</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
@@ -7356,52 +7356,52 @@
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.03785521518869714</v>
+        <v>0.003611691802032547</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.008172550707110773</v>
+        <v>0.003468238058667024</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.007790338786919965</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.01693600797579485</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0217373286001041</v>
+        <v>-0.01312647997872498</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0401233526791282</v>
+        <v>-0.01509425824321281</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0177137419565046</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.09172262013028937</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
@@ -7410,43 +7410,43 @@
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.06582013588508612</v>
+        <v>-0.04856937190885982</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1510486832965272</v>
+        <v>-0.0144052958861114</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.05671512881503499</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0195207084017245</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01105465523115427</v>
+        <v>-0.05422323863266254</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0523718707749393</v>
+        <v>-0.01060783340913262</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.05115216210066239</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.02513539238880621</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7464,25 +7464,25 @@
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.02078444234896383</v>
+        <v>0.01462339514021655</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.01217683278238603</v>
+        <v>0.0153860614232823</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>-0.03529877977709684</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.04914350702308985</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7491,124 +7491,124 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.03097917478023558</v>
+        <v>-0.02666337425894548</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.08336298619908132</v>
+        <v>0.002590875586360009</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.02656018550791412</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.01814226709795432</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.009452064959973255</v>
+        <v>0.01381361616338777</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.04395085127602142</v>
+        <v>0.006292756465611227</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01799405545713126</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>0.0003910181451737072</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.05538947523423985</v>
+        <v>-0.002831175779817538</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02460698173767636</v>
+        <v>-0.007262926825804069</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0.01653629826735518</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.01279802266547996</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.009194014219408455</v>
+        <v>0.0122677994742888</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.0405628488863071</v>
+        <v>0.01174170143216478</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02812668366742638</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>-0.01421292064359185</v>
       </c>
       <c r="DG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.003802659336953624</v>
+        <v>0.0181035049481498</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0.02093570379580017</v>
+        <v>-0.00294719262654576</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>7.76768000602719e-05</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
         <v>0</v>
@@ -7617,7 +7617,7 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.004275381857019834</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7626,228 +7626,228 @@
         <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02576206022066794</v>
+        <v>0.02153534443819882</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.004710952762545804</v>
+        <v>-0.009109462437326936</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.006560475251922227</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.01956926762507731</v>
       </c>
       <c r="DY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.003144644069069286</v>
+        <v>0.01936645685144719</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0.001733322251132839</v>
+        <v>-0.004632107804889072</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.002148524225746621</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>-0.02045058312696749</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.03344247302396454</v>
+        <v>0.01249634226870981</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.04095502682071057</v>
+        <v>0.009048908578283589</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.007823830637755099</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.002809502266768191</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02580309053848147</v>
+        <v>0.006389502698110698</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.02247504328997939</v>
+        <v>-0.004764912773717733</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01989349816022993</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>-0.01221428599050072</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.00640898351746917</v>
+        <v>0.01293285921557576</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.04007855777201047</v>
+        <v>0.01223946426423255</v>
       </c>
       <c r="FD13" t="n">
         <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02659667539949532</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.00403781842391285</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0155147223938981</v>
+        <v>0.01522466675568582</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.040752615225498</v>
+        <v>0.01344791572013587</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.02941562043895515</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.002808898544490414</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01684332479055892</v>
+        <v>0.00750255434764861</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.02473241401745802</v>
+        <v>0.008923002870434887</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.02643080610869326</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.005217629771249037</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0599135140839203</v>
+        <v>-0.008427603097652331</v>
       </c>
       <c r="GE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0.005418395008411455</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1612949710211655</v>
+        <v>0.3908482284799203</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>-0.1415305532121398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05609052758404118</v>
+        <v>-0.03734246700600252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4509530237786381</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7856,52 +7856,52 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.151452965212083</v>
+        <v>0.2684824886632711</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>-0.1467026088088991</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03971756699276699</v>
+        <v>-0.05606121135248502</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4135904760018548</v>
+        <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00744576105505251</v>
+        <v>0.1025781878612301</v>
       </c>
       <c r="U14" t="n">
         <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.005887372055981032</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.02399737468559223</v>
+        <v>0.1023360302370037</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1335707192585745</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
@@ -7910,82 +7910,82 @@
         <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.02497874417445932</v>
+        <v>0.1019684851844056</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>-0.01040495651815334</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0920982140332534</v>
+        <v>-0.003349430925435355</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.09656443959443148</v>
+        <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.04744789386714006</v>
+        <v>-0.01435144831739498</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0.07636656378673791</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.04045903141061942</v>
+        <v>-0.08922455505332197</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1161202011425391</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.204045448954151</v>
+        <v>0.3359384194582907</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.07319756489617422</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.06970710077483695</v>
+        <v>0.1419134082802872</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1601726807847607</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
         <v>-0</v>
@@ -7997,19 +7997,19 @@
         <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.05492050877622627</v>
+        <v>0.02797713467093448</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0</v>
+        <v>-0.05805134466920195</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.04481042136181918</v>
+        <v>-0.1169422629402479</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.1783925181033978</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,79 +8018,79 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
         <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.02196996210266146</v>
+        <v>0.05694798247597166</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.05899851120585817</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.06605184504436597</v>
+        <v>0.1979007751952771</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.08437790288122793</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0.07309142129312232</v>
+        <v>0.1604826507973125</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>0.01855643253586027</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01466439315560116</v>
+        <v>0.09865811961175174</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.2259272194852558</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
         <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.058562482240475</v>
+        <v>-0.08985607678154689</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>0.02646568059917847</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.004539089435617425</v>
+        <v>-0.01216717102087097</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0.07460932703166376</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
@@ -8102,79 +8102,79 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.02790837342028435</v>
+        <v>-0.02373886836111925</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.06123675580626253</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.05533516456490115</v>
+        <v>-0.1073901702012416</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.04391941983726962</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.05175877893035567</v>
+        <v>-0.08553426522495343</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.04541795342960152</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.002885892501530479</v>
+        <v>-0.004737652662853742</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0.07745027320800579</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.03016194050987146</v>
+        <v>-0.01167532022366577</v>
       </c>
       <c r="DG14" t="n">
         <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0</v>
+        <v>0.00522976608010529</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.03310960526271203</v>
+        <v>-0.008584961919464862</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.04974234284193024</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
         <v>0</v>
@@ -8186,19 +8186,19 @@
         <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0.01544133928401128</v>
+        <v>-0.006211831031062068</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>-0.1762713406829348</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0314722077779224</v>
+        <v>-0.04817659476881336</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.07492064287147787</v>
+        <v>-0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
@@ -8210,25 +8210,25 @@
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.03846494625827555</v>
+        <v>-0.06411067244608598</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.009830828483425074</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.02618515940428305</v>
+        <v>0.03959695257008852</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0.04042392613014199</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>-0</v>
@@ -8237,25 +8237,25 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.0653691095890739</v>
+        <v>-0.1085980045543459</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.08250780357661347</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.1109070702676686</v>
+        <v>0.07410638221299015</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0.1028627046853796</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>-0</v>
@@ -8264,106 +8264,106 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0173058816038275</v>
+        <v>-0.09174763403608648</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.08213835254051061</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.02218701880197717</v>
+        <v>0.01346117157503463</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0.1206516875719184</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.05911170213531729</v>
+        <v>-0.08093175669359416</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.0301811700528325</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.005664090993087248</v>
+        <v>-0.002043848056553023</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0.08498764211912284</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0.02594604442251834</v>
+        <v>-0.03017341466913788</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>-0.08295084516729991</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.08141417606003364</v>
+        <v>0.03856790091758881</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.040149349858441</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.04950927745528095</v>
+        <v>-0.01315159667940698</v>
       </c>
       <c r="FR14" t="n">
         <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0</v>
+        <v>0.1149543109851126</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.03493117693428076</v>
+        <v>-0.005635113998638619</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.03580859850327797</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
         <v>-0</v>
@@ -8372,28 +8372,28 @@
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0.03688977036866088</v>
+        <v>0.0118155659803467</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.06156492650544612</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.09757323402257702</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>-0</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>-0</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
@@ -8973,25 +8973,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.2146974991055687</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02064533146475718</v>
+        <v>-0.06166249570091765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.356384478129375</v>
+        <v>-0.1372065465011049</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1430744592112196</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9000,34 +9000,34 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1651538173850599</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.02766607794983061</v>
+        <v>-0.03101471768801332</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2791294284789461</v>
+        <v>-0.1097344187097961</v>
       </c>
       <c r="P16" t="n">
         <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.08740446563900725</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.02379762877177963</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -9036,43 +9036,43 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03497180065335692</v>
+        <v>-0.01635128109844269</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07579207995408699</v>
+        <v>-0.004275735685908793</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0009221592752163766</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0.006215450076922325</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.09117559758706843</v>
+        <v>0.01330545012385246</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.03510577394820271</v>
+        <v>-7.992590638328244e-05</v>
       </c>
       <c r="AH16" t="n">
         <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.03921435599750431</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.03052688726185477</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -9090,70 +9090,70 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.02553103688420738</v>
+        <v>0.00331143344402303</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.04895563433005196</v>
+        <v>-0.03842386836336169</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.001812732122548538</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1481128656561646</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.07310478902500731</v>
+        <v>-0.02382546226205735</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.1642527051991816</v>
+        <v>-0.07844487785598281</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.05259481430637494</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0</v>
+        <v>0.04047987357956814</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.03575249673058919</v>
+        <v>-0.0547000783482053</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0708287953120377</v>
+        <v>-0.0534923858599631</v>
       </c>
       <c r="BI16" t="n">
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.1065715741371114</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>-0</v>
@@ -9162,34 +9162,34 @@
         <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.03926529050770443</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.02964595489778803</v>
+        <v>0.0005786439610635845</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.02694563381694463</v>
+        <v>0.0195468211318834</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.0315738362856457</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.07153860270920621</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9198,16 +9198,16 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.02133101759007725</v>
+        <v>-0.02562032553457219</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1257240225017078</v>
+        <v>-0.0493928857213525</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.05500188522496493</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
@@ -9216,106 +9216,106 @@
         <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.03638933104603533</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0082354291274778</v>
+        <v>-0.003425098364924364</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.06179102161316346</v>
+        <v>0.03078446949301888</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.03021205128532013</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0.006472712784301688</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.07658325650254597</v>
+        <v>-0.005258313761749181</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.06147198354808257</v>
+        <v>-0.01446408998899489</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.007192352341517469</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.027784736787574</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.01485348296351839</v>
+        <v>-0.005347740411477608</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.05895156571085271</v>
+        <v>0.03427269020423423</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.04481203800939421</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.01034246398226128</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
         <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.004073568260034976</v>
+        <v>0.02967893283345814</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.003139937562488594</v>
+        <v>0.001847564716961329</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0005237004606604341</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.005260052249227066</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9333,25 +9333,25 @@
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.02939952219550019</v>
+        <v>0.02408550440186001</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0.0005492161897858783</v>
+        <v>-0.0002697735698777041</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.01660189013168559</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.0204188512343726</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9360,25 +9360,25 @@
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.02811520679852117</v>
+        <v>-0.008115893331866209</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.007602371299559355</v>
+        <v>0.02432746877151867</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.01151231767462516</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>-0.03967894479605003</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9387,133 +9387,133 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.04595787813608118</v>
+        <v>0.01010139768537819</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.05542943045066455</v>
+        <v>0.03197284549126673</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.02113476797501864</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>-0.01394165763703744</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.06315189216924788</v>
+        <v>-0.01371775719449716</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.05395761271116618</v>
+        <v>0.01457573055335869</v>
       </c>
       <c r="EU16" t="n">
         <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.01400791448575659</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>-0.02647403098958084</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.01283206014405714</v>
+        <v>-0.004349198245360052</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.05995508401917651</v>
+        <v>0.03124462316982133</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.0440252864502353</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>0.0008561665074462474</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.0129121653813368</v>
+        <v>0.003133390353812409</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.05434123466841468</v>
+        <v>-0.02123038162692813</v>
       </c>
       <c r="FM16" t="n">
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.0470431282352406</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.006582759523880407</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.01964516638768702</v>
+        <v>0.003925724811692122</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.05946209442815742</v>
+        <v>0.04553411504432513</v>
       </c>
       <c r="FV16" t="n">
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.07234106097753053</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>0.02114471914552674</v>
       </c>
       <c r="GA16" t="n">
         <v>-0</v>
@@ -9522,16 +9522,16 @@
         <v>-0</v>
       </c>
       <c r="GC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.07907209610702064</v>
+        <v>-0.01705513389702289</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.006318968166901379</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
         <v>-0</v>
@@ -9542,13 +9542,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
@@ -9569,13 +9569,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N17" t="n">
         <v>-0</v>
@@ -9596,13 +9596,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W17" t="n">
         <v>-0</v>
@@ -9623,13 +9623,13 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
         <v>-0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO17" t="n">
         <v>-0</v>
@@ -9677,13 +9677,13 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX17" t="n">
         <v>-0</v>
@@ -9704,13 +9704,13 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG17" t="n">
         <v>-0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP17" t="n">
         <v>-0</v>
@@ -9758,13 +9758,13 @@
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY17" t="n">
         <v>-0</v>
@@ -9785,13 +9785,13 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
         <v>-0</v>
@@ -9812,13 +9812,13 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
         <v>-0</v>
@@ -9893,13 +9893,13 @@
         <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR17" t="n">
         <v>-0</v>
@@ -9920,13 +9920,13 @@
         <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
         <v>-0</v>
@@ -9947,13 +9947,13 @@
         <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
       </c>
       <c r="EI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ17" t="n">
         <v>-0</v>
@@ -9974,13 +9974,13 @@
         <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ17" t="n">
         <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
         <v>-0</v>
@@ -10001,13 +10001,13 @@
         <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
         <v>-0</v>
